--- a/exports/xlsx/data_pendaftar_pmdp.xlsx
+++ b/exports/xlsx/data_pendaftar_pmdp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>No.</t>
   </si>
@@ -125,28 +125,28 @@
     <t>Prestasi 5</t>
   </si>
   <si>
-    <t>Aditiya Ramadhan Saputra</t>
-  </si>
-  <si>
-    <t>Jalan Tanah Mas Azhar Blok C4 No4 Talang Kelapa, Kabputen Banyuasin, Suamatera Selatan</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>081271718692</t>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Jalan M.P.Mangkunegara Lorong Harapan I blok R No.10</t>
+  </si>
+  <si>
+    <t>00112233</t>
+  </si>
+  <si>
+    <t>089630375108</t>
   </si>
   <si>
     <t>Pria</t>
   </si>
   <si>
-    <t>Sukajadi</t>
-  </si>
-  <si>
-    <t>2001-11-20</t>
-  </si>
-  <si>
-    <t>pas_foto_001.jpg</t>
+    <t>Muara Enim</t>
+  </si>
+  <si>
+    <t>2001-12-12</t>
+  </si>
+  <si>
+    <t>pas_foto_00112233.jpg</t>
   </si>
   <si>
     <t>PMDP</t>
@@ -158,118 +158,76 @@
     <t>IPA</t>
   </si>
   <si>
-    <t>SMAN 1 Talang Kelapa</t>
+    <t>Midtown High</t>
+  </si>
+  <si>
+    <t>Swasta</t>
+  </si>
+  <si>
+    <t>Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Kota Pagar Alam</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>rekap_nilai_rapot_00112233.xlsx</t>
+  </si>
+  <si>
+    <t>bukti_pembayaran_00112233.jpg</t>
+  </si>
+  <si>
+    <t>Prodi DIII Gizi Palembang</t>
+  </si>
+  <si>
+    <t>Prodi DIII Farmasi</t>
+  </si>
+  <si>
+    <t>Poppy</t>
+  </si>
+  <si>
+    <t>Jalan Jeruk</t>
+  </si>
+  <si>
+    <t>0896303751001</t>
+  </si>
+  <si>
+    <t>Wanita</t>
+  </si>
+  <si>
+    <t>Empat Lawang</t>
+  </si>
+  <si>
+    <t>2000-12-12</t>
+  </si>
+  <si>
+    <t>pas_foto_22334455.png</t>
+  </si>
+  <si>
+    <t>Madrasah Aliyah (MA)</t>
+  </si>
+  <si>
+    <t>MAN 3 Palembang</t>
   </si>
   <si>
     <t>Negeri</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_001.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_001.jpg</t>
-  </si>
-  <si>
-    <t>Prodi DIII Farmasi</t>
-  </si>
-  <si>
-    <t>prestasi_1_001.pdf</t>
-  </si>
-  <si>
-    <t>prestasi_2_001.pdf</t>
-  </si>
-  <si>
-    <t>prestasi_3_001.pdf</t>
-  </si>
-  <si>
-    <t>Muhammad Naufal Kateni</t>
-  </si>
-  <si>
-    <t>Jl. M. P. Mangkunegara Komp. Tirta Kencana Blok C5, Palembang, Sumatera Selatan</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>0816382001</t>
-  </si>
-  <si>
-    <t>Palembang</t>
-  </si>
-  <si>
-    <t>2001-11-25</t>
-  </si>
-  <si>
-    <t>pas_foto_002.jpg</t>
-  </si>
-  <si>
-    <t>SMAS Kusuma Bangsa Palembang</t>
-  </si>
-  <si>
-    <t>Swasta</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_002.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_002.jpg</t>
-  </si>
-  <si>
-    <t>Prodi DIII Teknologi Laboratorium Medis (TLM)</t>
-  </si>
-  <si>
-    <t>M. Rizky Azizi</t>
-  </si>
-  <si>
-    <t>Poligon Kenten</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>0895620677790</t>
-  </si>
-  <si>
-    <t>2001-06-12</t>
-  </si>
-  <si>
-    <t>pas_foto_003.jpg</t>
-  </si>
-  <si>
-    <t>SMAN 18 Palembang</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_003.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_003.jpg</t>
-  </si>
-  <si>
-    <t>prestasi_1_003.pdf</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>0816382000</t>
-  </si>
-  <si>
-    <t>pas_foto_004.jpg</t>
-  </si>
-  <si>
-    <t>rekap_nilai_rapot_004.xlsx</t>
-  </si>
-  <si>
-    <t>bukti_pembayaran_004.jpg</t>
-  </si>
-  <si>
-    <t>prestasi_1_004.pdf</t>
+    <t>Kota Palembang</t>
+  </si>
+  <si>
+    <t>rekap_nilai_rapot_22334455.xlsx</t>
+  </si>
+  <si>
+    <t>bukti_pembayaran_22334455.jpg</t>
+  </si>
+  <si>
+    <t>Prodi DIII Keperawatan Kampus Baturaja</t>
+  </si>
+  <si>
+    <t>Prodi DIII Keperawatan Kampus Lubuk Linggau</t>
   </si>
 </sst>
 </file>
@@ -608,7 +566,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,7 +695,7 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>30961</v>
+        <v>12345</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -749,10 +707,10 @@
         <v>40</v>
       </c>
       <c r="H2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -778,55 +736,51 @@
       <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="R2">
-        <v>16</v>
-      </c>
-      <c r="S2">
-        <v>1607</v>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U2">
         <v>2019</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W2">
         <v>100</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AD2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2"/>
-      <c r="AF2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG2" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AE2" t="s">
         <v>55</v>
       </c>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
     </row>
@@ -841,22 +795,22 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>30163</v>
-      </c>
-      <c r="E3" t="s">
+        <v>12345</v>
+      </c>
+      <c r="E3">
+        <v>22334455</v>
+      </c>
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
       <c r="H3">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
         <v>60</v>
@@ -871,43 +825,43 @@
         <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>1671</v>
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="V3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W3">
-        <v>90.5</v>
+        <v>89.6</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -916,219 +870,19 @@
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AD3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="AE3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
       <c r="AJ3"/>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4">
-        <v>30111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>180</v>
-      </c>
-      <c r="I4">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4">
-        <v>16</v>
-      </c>
-      <c r="S4">
-        <v>1671</v>
-      </c>
-      <c r="T4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4">
-        <v>2019</v>
-      </c>
-      <c r="V4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4">
-        <v>95.8</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4"/>
-      <c r="AF4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>30163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="I5">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5">
-        <v>16</v>
-      </c>
-      <c r="S5">
-        <v>1671</v>
-      </c>
-      <c r="T5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5">
-        <v>2019</v>
-      </c>
-      <c r="V5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W5">
-        <v>90</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE5"/>
-      <c r="AF5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
